--- a/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.1072336722028961</v>
+        <v>1.1072336502379305</v>
       </c>
       <c r="C2">
-        <v>1.2657663443919827</v>
+        <v>1.2657663206117706</v>
       </c>
       <c r="D2">
-        <v>1.3552448366715124</v>
+        <v>1.3552448201296925</v>
       </c>
       <c r="E2">
-        <v>1.1227609308938571</v>
+        <v>1.1227609184552105</v>
       </c>
       <c r="F2">
-        <v>2.2200192506747332</v>
+        <v>2.2200192194314368</v>
       </c>
       <c r="G2">
-        <v>1.4323735347856572</v>
+        <v>1.4323735075173896</v>
       </c>
       <c r="H2">
-        <v>2.0163297357353134</v>
+        <v>2.016329684846375</v>
       </c>
       <c r="I2">
-        <v>1.6944581708004818</v>
+        <v>1.6944581563387913</v>
       </c>
       <c r="J2">
-        <v>1.6624208217943113</v>
+        <v>1.6624207912919846</v>
       </c>
       <c r="K2">
-        <v>2.0764742649871928</v>
+        <v>2.0764742365605646</v>
       </c>
       <c r="L2">
-        <v>0.93780477734108758</v>
+        <v>0.93780475891168691</v>
       </c>
       <c r="N2">
-        <v>1.9545756358041873</v>
+        <v>1.9545755969256651</v>
       </c>
       <c r="O2">
-        <v>0.25752422471562958</v>
+        <v>0.25752419181584829</v>
       </c>
       <c r="P2">
-        <v>4.6607050544843016</v>
+        <v>4.6607049775089342</v>
       </c>
       <c r="Q2">
-        <v>0.86905588803903677</v>
+        <v>0.86905587769299175</v>
       </c>
       <c r="V2">
-        <v>6.7147685037906086</v>
+        <v>6.714768351656331</v>
       </c>
       <c r="W2">
-        <v>1.3423048511053839</v>
+        <v>1.3423048270704434</v>
       </c>
       <c r="X2">
-        <v>1.6561676241944625</v>
+        <v>1.6561675747102267</v>
       </c>
       <c r="AA2">
-        <v>1.426552881098226</v>
+        <v>1.4265528585810312</v>
       </c>
       <c r="AB2">
-        <v>0.58000728019267422</v>
+        <v>0.58000726824383109</v>
       </c>
       <c r="AC2">
-        <v>1.2648565979187572</v>
+        <v>1.264856570227789</v>
       </c>
       <c r="AD2">
-        <v>0.56228534905409744</v>
+        <v>0.56228534247893203</v>
       </c>
       <c r="AE2">
-        <v>1.236590257479957</v>
+        <v>1.2365902416687264</v>
       </c>
       <c r="AF2">
-        <v>2.4431433366735895</v>
+        <v>2.4431432930990464</v>
       </c>
       <c r="AG2">
-        <v>0.90800466426783588</v>
+        <v>0.90800464472153486</v>
       </c>
       <c r="AH2">
-        <v>2.0679209865792409</v>
+        <v>2.0679209351126144</v>
       </c>
       <c r="AI2">
-        <v>1.04528649212536</v>
+        <v>1.0452864734330427</v>
       </c>
       <c r="AJ2">
-        <v>2.4743099823779797</v>
+        <v>2.4743099537262974</v>
       </c>
       <c r="AK2">
-        <v>0.73024169594054811</v>
+        <v>0.73024168227780073</v>
       </c>
       <c r="AL2">
-        <v>1.6891485505415733</v>
+        <v>1.6891485480101853</v>
       </c>
       <c r="AM2">
-        <v>1.6478961294740033</v>
+        <v>1.6478961027943271</v>
       </c>
       <c r="AN2">
-        <v>0.30406154744681985</v>
+        <v>0.30406155125440953</v>
       </c>
       <c r="AO2">
-        <v>1.5428458449299325</v>
+        <v>1.5428458124085034</v>
       </c>
       <c r="AQ2">
-        <v>0.34982904274612947</v>
+        <v>0.34982905648709473</v>
       </c>
       <c r="AR2">
-        <v>4.847213605156182</v>
+        <v>4.8472135502535512</v>
       </c>
       <c r="AS2">
-        <v>2.4388168394784948</v>
+        <v>2.4388168509533372</v>
       </c>
       <c r="AU2">
-        <v>4.3313805308706446</v>
+        <v>4.3313804117146111</v>
       </c>
       <c r="AV2">
-        <v>0.68700260870271812</v>
+        <v>0.68700259701900623</v>
       </c>
       <c r="AW2">
-        <v>0.71404908960212388</v>
+        <v>0.71404907333548395</v>
       </c>
       <c r="AX2">
-        <v>0.90214488642082769</v>
+        <v>0.90214488343579002</v>
       </c>
       <c r="AY2">
-        <v>0.57029223572283005</v>
+        <v>0.57029216708222463</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -646,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4423724618226279</v>
+        <v>1.44237243405715</v>
       </c>
       <c r="C3">
-        <v>0.86870442156114636</v>
+        <v>0.86870440841510532</v>
       </c>
       <c r="E3">
-        <v>3.7441370405584218</v>
+        <v>3.7441370088432833</v>
       </c>
       <c r="F3">
-        <v>0.49582755836135994</v>
+        <v>0.4958275468076907</v>
       </c>
       <c r="G3">
-        <v>1.6159311916683812</v>
+        <v>1.6159311606156337</v>
       </c>
       <c r="H3">
-        <v>2.4599955033017906</v>
+        <v>2.4599954532519641</v>
       </c>
       <c r="J3">
-        <v>1.825011512266471</v>
+        <v>1.8250114769940313</v>
       </c>
       <c r="K3">
-        <v>1.799123810821452</v>
+        <v>1.7991237924990369</v>
       </c>
       <c r="L3">
-        <v>1.6212085768732034</v>
+        <v>1.6212085471370326</v>
       </c>
       <c r="M3">
-        <v>2.6336779573308822</v>
+        <v>2.6342137454246539</v>
       </c>
       <c r="N3">
-        <v>1.8843520926880433</v>
+        <v>1.8843520616488436</v>
       </c>
       <c r="P3">
-        <v>4.5099461948160044</v>
+        <v>4.5099461046816867</v>
       </c>
       <c r="Q3">
-        <v>1.4658944615169229</v>
+        <v>1.4658944447748137</v>
       </c>
       <c r="R3">
-        <v>0.91130334124934376</v>
+        <v>0.91130335404005036</v>
       </c>
       <c r="W3">
-        <v>1.7694879652514457</v>
+        <v>1.7694879427752188</v>
       </c>
       <c r="AA3">
-        <v>0.69745351424174806</v>
+        <v>0.69745350179697152</v>
       </c>
       <c r="AB3">
-        <v>0.75331567256030418</v>
+        <v>0.75331566002704786</v>
       </c>
       <c r="AC3">
-        <v>0.6844005810780518</v>
+        <v>0.68440056389999393</v>
       </c>
       <c r="AD3">
-        <v>1.2561847243718716</v>
+        <v>1.2561847094042362</v>
       </c>
       <c r="AE3">
-        <v>0.60720828735462118</v>
+        <v>0.60720827272450861</v>
       </c>
       <c r="AF3">
-        <v>1.6228177730708713</v>
+        <v>1.6228177399210053</v>
       </c>
       <c r="AG3">
-        <v>1.5477072435524757</v>
+        <v>1.5477072203898627</v>
       </c>
       <c r="AH3">
-        <v>0.76904492328317386</v>
+        <v>0.76904493191595502</v>
       </c>
       <c r="AI3">
-        <v>0.99362675401422063</v>
+        <v>0.99362673610108709</v>
       </c>
       <c r="AJ3">
-        <v>2.017578470833183</v>
+        <v>2.0175784499732843</v>
       </c>
       <c r="AK3">
-        <v>0.73531289791946908</v>
+        <v>0.73531288536292139</v>
       </c>
       <c r="AL3">
-        <v>2.3771152693986806</v>
+        <v>2.3771152323387641</v>
       </c>
       <c r="AM3">
-        <v>1.960430153443772</v>
+        <v>1.9604301158414745</v>
       </c>
       <c r="AN3">
-        <v>0.57778163460412246</v>
+        <v>0.57778162277943024</v>
       </c>
       <c r="AO3">
-        <v>2.3455521734176097</v>
+        <v>2.3455521287984671</v>
       </c>
       <c r="AP3">
-        <v>0.87471874422265994</v>
+        <v>0.87471872983028909</v>
       </c>
       <c r="AQ3">
-        <v>0.71703345607573543</v>
+        <v>0.71703346859521266</v>
       </c>
       <c r="AS3">
-        <v>1.6785790348625864</v>
+        <v>1.6785789772652704</v>
       </c>
       <c r="AT3">
-        <v>1.5023865606700486</v>
+        <v>1.502386541180877</v>
       </c>
       <c r="AU3">
-        <v>0.88850539091029801</v>
+        <v>0.88850553287241008</v>
       </c>
       <c r="AV3">
-        <v>0.58976386714740647</v>
+        <v>0.5897638523189408</v>
       </c>
       <c r="AW3">
-        <v>0.64605475709573645</v>
+        <v>0.64605473993915796</v>
       </c>
       <c r="AX3">
-        <v>1.0345108532823271</v>
+        <v>1.0345108541572565</v>
       </c>
       <c r="AY3">
-        <v>3.3266830875129081</v>
+        <v>3.3266830986741027</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.1072336502379305</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.2657663206117706</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.3552448201296925</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.1227609184552105</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.2200192194314368</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4323735075173896</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.016329684846375</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6944581563387913</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.6624207912919846</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.0764742365605646</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.93780475891168691</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.9545755969256651</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.25752419181584829</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.6607049775089342</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.86905587769299175</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="V2">
         <v>6.714768351656331</v>
@@ -567,52 +462,55 @@
         <v>1.6561675747102267</v>
       </c>
       <c r="AA2">
-        <v>1.4265528585810312</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.58000726824383109</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.264856570227789</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.56228534247893203</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.2365902416687264</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.4431432930990464</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.90800464472153486</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.0679209351126144</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.0452864734330427</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.4743099537262974</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.73024168227780073</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.6891485480101853</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.6478961027943271</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.30406155125440953</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.5428458124085034</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.34982905648709473</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.8472135502535512</v>
@@ -637,104 +535,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.44237243405715</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.86870440841510532</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.7441370088432833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4958275468076907</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.6159311606156337</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.4599954532519641</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.8250114769940313</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.7991237924990369</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.6212085471370326</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.6342137454246539</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.8843520616488436</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.5099461046816867</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4658944447748137</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.91130335404005036</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>1.7694879427752188</v>
       </c>
       <c r="AA3">
-        <v>0.69745350179697152</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.75331566002704786</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.68440056389999393</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.2561847094042362</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.60720827272450861</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.6228177399210053</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.5477072203898627</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.76904493191595502</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.99362673610108709</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.0175784499732843</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.73531288536292139</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.3771152323387641</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.9604301158414745</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.57778162277943024</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.3455521287984671</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.87471872983028909</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.71703346859521266</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>1.6785789772652704</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.274387610103926</v>
+        <v>0.72790054227419165</v>
       </c>
       <c r="C2">
-        <v>1.4474598288228786</v>
+        <v>0.93662520785023462</v>
       </c>
       <c r="D2">
-        <v>1.455544713878838</v>
+        <v>0.48922537474695921</v>
       </c>
       <c r="E2">
-        <v>1.2536697531975034</v>
+        <v>1.0106203106601002</v>
       </c>
       <c r="F2">
         <v>2.4709555438603941</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.64603109776513</v>
+        <v>0.25390981566173826</v>
       </c>
       <c r="C3">
-        <v>1.0006690859718508</v>
+        <v>1.269633190629619</v>
       </c>
       <c r="D3">
-        <v>1.6783726412336406</v>
+        <v>0.77385520587044976</v>
       </c>
       <c r="E3">
-        <v>4.1876212948502012</v>
+        <v>0.98601100741103531</v>
       </c>
       <c r="F3">
         <v>0.60412318484632044</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.274387610103926</v>
+        <v>2.2062744499517599</v>
       </c>
       <c r="C2">
-        <v>1.4474598288228786</v>
+        <v>0.72790054227419165</v>
       </c>
       <c r="D2">
-        <v>1.455544713878838</v>
+        <v>1.9204613482236521</v>
       </c>
       <c r="E2">
-        <v>1.2536697531975034</v>
+        <v>0.48922537474695921</v>
       </c>
       <c r="F2">
         <v>2.4709555438603941</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.64603109776513</v>
+        <v>2.1640683466431012</v>
       </c>
       <c r="C3">
-        <v>1.0006690859718508</v>
+        <v>0.25390981566173826</v>
       </c>
       <c r="D3">
-        <v>1.6783726412336406</v>
+        <v>2.2601054549193393</v>
       </c>
       <c r="E3">
-        <v>4.1876212948502012</v>
+        <v>0.77385520587044976</v>
       </c>
       <c r="F3">
         <v>0.60412318484632044</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 10deg.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.2743875874630943</v>
+      </c>
+      <c r="C2">
+        <v>1.4474598035903021</v>
+      </c>
+      <c r="D2">
+        <v>1.4555446945860946</v>
+      </c>
+      <c r="E2">
+        <v>1.2536697445706859</v>
+      </c>
+      <c r="F2">
+        <v>2.4709555099095457</v>
+      </c>
+      <c r="G2">
+        <v>1.6635156633364534</v>
+      </c>
+      <c r="H2">
+        <v>2.3389011835354214</v>
+      </c>
+      <c r="I2">
+        <v>1.9844217666656112</v>
+      </c>
+      <c r="J2">
+        <v>1.9121068540953527</v>
+      </c>
+      <c r="K2">
+        <v>2.3453810929253174</v>
+      </c>
+      <c r="L2">
+        <v>1.095654263935707</v>
+      </c>
+      <c r="M2">
+        <v>6.0484383590763304</v>
+      </c>
+      <c r="N2">
         <v>2.2062744499517599</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0.72790054227419165</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.1000034717969243</v>
+      </c>
+      <c r="Q2">
+        <v>1.1053113140784976</v>
+      </c>
+      <c r="R2">
+        <v>0.93662520785023462</v>
+      </c>
+      <c r="S2">
+        <v>5.6472170478657215</v>
+      </c>
+      <c r="T2">
+        <v>2.4186525469863813</v>
+      </c>
+      <c r="U2">
+        <v>3.3103136684451302</v>
+      </c>
+      <c r="V2">
+        <v>2.5930094772983812</v>
+      </c>
+      <c r="W2">
+        <v>1.5309793212059242</v>
+      </c>
+      <c r="X2">
+        <v>1.7338099037866217</v>
+      </c>
+      <c r="Y2">
+        <v>1.9738292557771766</v>
+      </c>
+      <c r="Z2">
+        <v>-0.27045769430462735</v>
+      </c>
+      <c r="AA2">
+        <v>1.6684102353953731</v>
+      </c>
+      <c r="AB2">
+        <v>0.68519439892915934</v>
+      </c>
+      <c r="AC2">
+        <v>1.2879711722041467</v>
+      </c>
+      <c r="AD2">
+        <v>0.66064791417171964</v>
+      </c>
+      <c r="AE2">
+        <v>1.353845006858462</v>
+      </c>
+      <c r="AF2">
+        <v>2.7328343338910037</v>
+      </c>
+      <c r="AG2">
+        <v>1.0903492544699878</v>
+      </c>
+      <c r="AH2">
+        <v>1.7779808430102386</v>
+      </c>
+      <c r="AI2">
+        <v>1.2681972383021058</v>
+      </c>
+      <c r="AJ2">
+        <v>2.7389088149051357</v>
+      </c>
+      <c r="AK2">
+        <v>0.8469234864559132</v>
+      </c>
+      <c r="AL2">
+        <v>1.6926967538489222</v>
+      </c>
+      <c r="AM2">
         <v>1.9204613482236521</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.48922537474695921</v>
       </c>
-      <c r="F2">
-        <v>2.4709555438603941</v>
-      </c>
-      <c r="G2">
-        <v>1.6635156919270426</v>
-      </c>
-      <c r="H2">
-        <v>2.3389012384508634</v>
-      </c>
-      <c r="I2">
-        <v>1.9844217936939434</v>
-      </c>
-      <c r="J2">
-        <v>1.9121068865488444</v>
-      </c>
-      <c r="K2">
-        <v>2.3453811225262156</v>
-      </c>
-      <c r="L2">
-        <v>1.0956542851412032</v>
-      </c>
-      <c r="M2">
-        <v>6.0484385312662843</v>
-      </c>
-      <c r="N2">
-        <v>2.2062744925396336</v>
-      </c>
-      <c r="O2">
-        <v>0.72790055070609794</v>
-      </c>
-      <c r="P2">
-        <v>5.1000035551895637</v>
-      </c>
-      <c r="Q2">
-        <v>1.1053113297497235</v>
-      </c>
-      <c r="R2">
-        <v>0.9366251877824987</v>
-      </c>
-      <c r="S2">
-        <v>5.6472171620689302</v>
-      </c>
-      <c r="T2">
-        <v>2.4186526980271221</v>
-      </c>
-      <c r="U2">
-        <v>3.310313726696108</v>
-      </c>
-      <c r="V2">
-        <v>2.5930095038245953</v>
-      </c>
-      <c r="W2">
-        <v>1.5309793462416157</v>
-      </c>
-      <c r="X2">
-        <v>1.7338099487658329</v>
-      </c>
-      <c r="Y2">
-        <v>1.9738292771055397</v>
-      </c>
-      <c r="Z2">
-        <v>-0.2704576499696254</v>
-      </c>
-      <c r="AA2">
-        <v>1.6684102561789909</v>
-      </c>
-      <c r="AB2">
-        <v>0.68519441135332482</v>
-      </c>
-      <c r="AC2">
-        <v>1.287971193743791</v>
-      </c>
-      <c r="AD2">
-        <v>0.66064792217505974</v>
-      </c>
-      <c r="AE2">
-        <v>1.3538450245856071</v>
-      </c>
-      <c r="AF2">
-        <v>2.732834380485393</v>
-      </c>
-      <c r="AG2">
-        <v>1.0903492795235006</v>
-      </c>
-      <c r="AH2">
-        <v>1.7779808716746268</v>
-      </c>
-      <c r="AI2">
-        <v>1.2681972580153691</v>
-      </c>
-      <c r="AJ2">
-        <v>2.738908841044335</v>
-      </c>
-      <c r="AK2">
-        <v>0.8469235004495077</v>
-      </c>
-      <c r="AL2">
-        <v>1.6926967863094473</v>
-      </c>
-      <c r="AM2">
-        <v>1.9204613785804352</v>
-      </c>
-      <c r="AN2">
-        <v>0.48922537901516633</v>
-      </c>
       <c r="AO2">
-        <v>1.7422932776980122</v>
+        <v>1.7422932480920976</v>
       </c>
       <c r="AP2">
-        <v>1.0790436370150485</v>
+        <v>1.0790436403912964</v>
       </c>
       <c r="AQ2">
-        <v>1.0106203248686092</v>
+        <v>1.0106203106601002</v>
       </c>
       <c r="AR2">
-        <v>4.4654324639582095</v>
+        <v>4.4654324009189459</v>
       </c>
       <c r="AS2">
-        <v>1.8861520104096834</v>
+        <v>1.886151987139963</v>
       </c>
       <c r="AT2">
-        <v>0.61053346952841947</v>
+        <v>0.61053346115370632</v>
       </c>
       <c r="AU2">
-        <v>2.6911187309584435</v>
+        <v>2.6911187102125713</v>
       </c>
       <c r="AV2">
-        <v>0.87322824599143267</v>
+        <v>0.87322823289534734</v>
       </c>
       <c r="AW2">
-        <v>0.8833648200373152</v>
+        <v>0.88336480318604049</v>
       </c>
       <c r="AX2">
-        <v>0.93750339635634738</v>
+        <v>0.93750338112637577</v>
       </c>
       <c r="AY2">
-        <v>1.1480574244559754</v>
+        <v>1.1480574023388703</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.6460310690395403</v>
+      </c>
+      <c r="C3">
+        <v>1.0006690716301598</v>
+      </c>
+      <c r="D3">
+        <v>1.6783726475186249</v>
+      </c>
+      <c r="E3">
+        <v>4.1876212580290915</v>
+      </c>
+      <c r="F3">
+        <v>0.60412317193066523</v>
+      </c>
+      <c r="G3">
+        <v>1.8772824462594555</v>
+      </c>
+      <c r="H3">
+        <v>2.7665450149772433</v>
+      </c>
+      <c r="I3">
+        <v>1.2553376730909238</v>
+      </c>
+      <c r="J3">
+        <v>2.0585511125671112</v>
+      </c>
+      <c r="K3">
+        <v>2.0823712105839753</v>
+      </c>
+      <c r="L3">
+        <v>1.8544699642555249</v>
+      </c>
+      <c r="M3">
+        <v>2.8231669237235204</v>
+      </c>
+      <c r="N3">
         <v>2.1640683466431012</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>0.25390981566173826</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.8803788494610529</v>
+      </c>
+      <c r="Q3">
+        <v>1.5995700237348616</v>
+      </c>
+      <c r="R3">
+        <v>1.269633190629619</v>
+      </c>
+      <c r="S3">
+        <v>3.0951848159749566</v>
+      </c>
+      <c r="T3">
+        <v>1.3313143626637107</v>
+      </c>
+      <c r="U3">
+        <v>-2.5241810769398354E-2</v>
+      </c>
+      <c r="V3">
+        <v>-2.7099705608430287</v>
+      </c>
+      <c r="W3">
+        <v>1.9045619891743368</v>
+      </c>
+      <c r="X3">
+        <v>2.4672422593375205</v>
+      </c>
+      <c r="Y3">
+        <v>1.3133066885842797</v>
+      </c>
+      <c r="Z3">
+        <v>1.5397939684339632</v>
+      </c>
+      <c r="AA3">
+        <v>0.82951802604996017</v>
+      </c>
+      <c r="AB3">
+        <v>0.83857111053110134</v>
+      </c>
+      <c r="AC3">
+        <v>0.85010322200831434</v>
+      </c>
+      <c r="AD3">
+        <v>1.468284782395479</v>
+      </c>
+      <c r="AE3">
+        <v>0.72637280997542741</v>
+      </c>
+      <c r="AF3">
+        <v>1.8317342528065996</v>
+      </c>
+      <c r="AG3">
+        <v>1.7132266368388627</v>
+      </c>
+      <c r="AH3">
+        <v>0.88989567081159349</v>
+      </c>
+      <c r="AI3">
+        <v>1.1791756311076249</v>
+      </c>
+      <c r="AJ3">
+        <v>2.3195719141945985</v>
+      </c>
+      <c r="AK3">
+        <v>0.85514348145034669</v>
+      </c>
+      <c r="AL3">
+        <v>2.4045492913476494</v>
+      </c>
+      <c r="AM3">
         <v>2.2601054549193393</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.77385520587044976</v>
       </c>
-      <c r="F3">
-        <v>0.60412318484632044</v>
-      </c>
-      <c r="G3">
-        <v>1.8772824803888408</v>
-      </c>
-      <c r="H3">
-        <v>2.7665450686198292</v>
-      </c>
-      <c r="I3">
-        <v>1.2553377291157715</v>
-      </c>
-      <c r="J3">
-        <v>2.058551149460456</v>
-      </c>
-      <c r="K3">
-        <v>2.0823712312278269</v>
-      </c>
-      <c r="L3">
-        <v>1.8544699962289659</v>
-      </c>
-      <c r="M3">
-        <v>2.8228794524037637</v>
-      </c>
-      <c r="N3">
-        <v>2.1640683799882487</v>
-      </c>
-      <c r="O3">
-        <v>0.25390977053247965</v>
-      </c>
-      <c r="P3">
-        <v>4.8803789326723699</v>
-      </c>
-      <c r="Q3">
-        <v>1.5995700388235703</v>
-      </c>
-      <c r="R3">
-        <v>1.2696332189756396</v>
-      </c>
-      <c r="S3">
-        <v>3.0951847611122543</v>
-      </c>
-      <c r="T3">
-        <v>1.3313143693179743</v>
-      </c>
-      <c r="U3">
-        <v>-2.5241922718455378E-2</v>
-      </c>
-      <c r="V3">
-        <v>-2.7099711626905711</v>
-      </c>
-      <c r="W3">
-        <v>1.9045620120137268</v>
-      </c>
-      <c r="X3">
-        <v>2.4672423202223048</v>
-      </c>
-      <c r="Y3">
-        <v>1.3133066527814246</v>
-      </c>
-      <c r="Z3">
-        <v>1.5397939645161189</v>
-      </c>
-      <c r="AA3">
-        <v>0.8295180379191468</v>
-      </c>
-      <c r="AB3">
-        <v>0.83857112164490566</v>
-      </c>
-      <c r="AC3">
-        <v>0.85010323652141007</v>
-      </c>
-      <c r="AD3">
-        <v>1.4682847990242016</v>
-      </c>
-      <c r="AE3">
-        <v>0.72637282503629785</v>
-      </c>
-      <c r="AF3">
-        <v>1.8317342898817333</v>
-      </c>
-      <c r="AG3">
-        <v>1.7132266619360297</v>
-      </c>
-      <c r="AH3">
-        <v>0.88989568222095916</v>
-      </c>
-      <c r="AI3">
-        <v>1.1791756493703742</v>
-      </c>
-      <c r="AJ3">
-        <v>2.3195719368911032</v>
-      </c>
-      <c r="AK3">
-        <v>0.85514349245366206</v>
-      </c>
-      <c r="AL3">
-        <v>2.4045493432960168</v>
-      </c>
-      <c r="AM3">
-        <v>2.2601054976376194</v>
-      </c>
-      <c r="AN3">
-        <v>0.77385521596431972</v>
-      </c>
       <c r="AO3">
-        <v>2.6491535137919855</v>
+        <v>2.6491534624451631</v>
       </c>
       <c r="AP3">
-        <v>1.0316737796884499</v>
+        <v>1.0316737688933255</v>
       </c>
       <c r="AQ3">
-        <v>0.98601101977188033</v>
+        <v>0.98601100741103531</v>
       </c>
       <c r="AR3">
-        <v>1.757760287411434</v>
+        <v>1.7577602687596858</v>
       </c>
       <c r="AS3">
-        <v>1.4626020053258828</v>
+        <v>1.4626019817842351</v>
       </c>
       <c r="AT3">
-        <v>0.73864699419806157</v>
+        <v>0.7386469873387117</v>
       </c>
       <c r="AU3">
-        <v>2.2414689361193045</v>
+        <v>2.2414689059277055</v>
       </c>
       <c r="AV3">
-        <v>0.77002499956657744</v>
+        <v>0.77002498197337332</v>
       </c>
       <c r="AW3">
-        <v>0.84917723210129292</v>
+        <v>0.84917721980861971</v>
       </c>
       <c r="AX3">
-        <v>1.2821860669773719</v>
+        <v>1.2821860501558389</v>
       </c>
       <c r="AY3">
-        <v>2.1627210584791143</v>
+        <v>2.1627210417631884</v>
       </c>
     </row>
   </sheetData>
